--- a/xlsx/澳大利亞_intext.xlsx
+++ b/xlsx/澳大利亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1978">
   <si>
     <t>澳大利亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>澳大利亚 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_行政_澳大利亞</t>
+    <t>体育运动_体育运动_南非_澳大利亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -3840,6 +3840,12 @@
   </si>
   <si>
     <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Archive.is</t>
+  </si>
+  <si>
+    <t>Archive.is</t>
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/Penal_transportation</t>
@@ -6291,7 +6297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1051"/>
+  <dimension ref="A1:I1052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7911,7 +7917,7 @@
         <v>112</v>
       </c>
       <c r="G56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -25659,7 +25665,7 @@
         <v>1272</v>
       </c>
       <c r="G668" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -25775,7 +25781,7 @@
         <v>1280</v>
       </c>
       <c r="G672" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -25804,7 +25810,7 @@
         <v>1282</v>
       </c>
       <c r="G673" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -26030,10 +26036,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>845</v>
+        <v>1297</v>
       </c>
       <c r="F681" t="s">
-        <v>846</v>
+        <v>1298</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -26059,13 +26065,13 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1297</v>
+        <v>845</v>
       </c>
       <c r="F682" t="s">
-        <v>1298</v>
+        <v>846</v>
       </c>
       <c r="G682" t="n">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -26094,7 +26100,7 @@
         <v>1300</v>
       </c>
       <c r="G683" t="n">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -26117,13 +26123,13 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>497</v>
+        <v>1301</v>
       </c>
       <c r="F684" t="s">
-        <v>498</v>
+        <v>1302</v>
       </c>
       <c r="G684" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -26146,10 +26152,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1299</v>
+        <v>497</v>
       </c>
       <c r="F685" t="s">
-        <v>1300</v>
+        <v>498</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -26268,7 +26274,7 @@
         <v>1308</v>
       </c>
       <c r="G689" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -26291,13 +26297,13 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>441</v>
+        <v>1309</v>
       </c>
       <c r="F690" t="s">
-        <v>442</v>
+        <v>1310</v>
       </c>
       <c r="G690" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H690" t="s">
         <v>4</v>
@@ -26320,13 +26326,13 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1309</v>
+        <v>441</v>
       </c>
       <c r="F691" t="s">
-        <v>1310</v>
+        <v>442</v>
       </c>
       <c r="G691" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -26355,7 +26361,7 @@
         <v>1312</v>
       </c>
       <c r="G692" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H692" t="s">
         <v>4</v>
@@ -26384,7 +26390,7 @@
         <v>1314</v>
       </c>
       <c r="G693" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H693" t="s">
         <v>4</v>
@@ -26407,13 +26413,13 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>473</v>
+        <v>1315</v>
       </c>
       <c r="F694" t="s">
-        <v>474</v>
+        <v>1316</v>
       </c>
       <c r="G694" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -26436,13 +26442,13 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1315</v>
+        <v>473</v>
       </c>
       <c r="F695" t="s">
-        <v>1316</v>
+        <v>474</v>
       </c>
       <c r="G695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -26494,10 +26500,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>443</v>
+        <v>1319</v>
       </c>
       <c r="F697" t="s">
-        <v>444</v>
+        <v>1320</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -26523,10 +26529,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="F698" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -26552,10 +26558,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1319</v>
+        <v>373</v>
       </c>
       <c r="F699" t="s">
-        <v>1320</v>
+        <v>374</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -26581,10 +26587,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>329</v>
+        <v>1321</v>
       </c>
       <c r="F700" t="s">
-        <v>330</v>
+        <v>1322</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -26610,10 +26616,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1321</v>
+        <v>329</v>
       </c>
       <c r="F701" t="s">
-        <v>1322</v>
+        <v>330</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -26639,10 +26645,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>495</v>
+        <v>1323</v>
       </c>
       <c r="F702" t="s">
-        <v>496</v>
+        <v>1324</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -26668,10 +26674,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1323</v>
+        <v>495</v>
       </c>
       <c r="F703" t="s">
-        <v>1324</v>
+        <v>496</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -26819,7 +26825,7 @@
         <v>1334</v>
       </c>
       <c r="G708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -26848,7 +26854,7 @@
         <v>1336</v>
       </c>
       <c r="G709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -26871,13 +26877,13 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>375</v>
+        <v>1337</v>
       </c>
       <c r="F710" t="s">
-        <v>376</v>
+        <v>1338</v>
       </c>
       <c r="G710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -26900,13 +26906,13 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1337</v>
+        <v>375</v>
       </c>
       <c r="F711" t="s">
-        <v>1338</v>
+        <v>376</v>
       </c>
       <c r="G711" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -26935,7 +26941,7 @@
         <v>1340</v>
       </c>
       <c r="G712" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -26987,13 +26993,13 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>673</v>
+        <v>1343</v>
       </c>
       <c r="F714" t="s">
-        <v>674</v>
+        <v>1344</v>
       </c>
       <c r="G714" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -27016,13 +27022,13 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1343</v>
+        <v>673</v>
       </c>
       <c r="F715" t="s">
-        <v>1344</v>
+        <v>674</v>
       </c>
       <c r="G715" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -27161,13 +27167,13 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>813</v>
+        <v>1353</v>
       </c>
       <c r="F720" t="s">
-        <v>814</v>
+        <v>1354</v>
       </c>
       <c r="G720" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -27190,13 +27196,13 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1353</v>
+        <v>813</v>
       </c>
       <c r="F721" t="s">
-        <v>1354</v>
+        <v>814</v>
       </c>
       <c r="G721" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -27225,7 +27231,7 @@
         <v>1356</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -27335,10 +27341,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>947</v>
+        <v>1363</v>
       </c>
       <c r="F726" t="s">
-        <v>948</v>
+        <v>1364</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -27364,10 +27370,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1363</v>
+        <v>947</v>
       </c>
       <c r="F727" t="s">
-        <v>1364</v>
+        <v>948</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -27422,10 +27428,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>421</v>
+        <v>1367</v>
       </c>
       <c r="F729" t="s">
-        <v>422</v>
+        <v>1368</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -27451,10 +27457,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1367</v>
+        <v>421</v>
       </c>
       <c r="F730" t="s">
-        <v>1368</v>
+        <v>422</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -27544,7 +27550,7 @@
         <v>1374</v>
       </c>
       <c r="G733" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -27573,7 +27579,7 @@
         <v>1376</v>
       </c>
       <c r="G734" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -27602,7 +27608,7 @@
         <v>1378</v>
       </c>
       <c r="G735" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -27631,7 +27637,7 @@
         <v>1380</v>
       </c>
       <c r="G736" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -27660,7 +27666,7 @@
         <v>1382</v>
       </c>
       <c r="G737" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H737" t="s">
         <v>4</v>
@@ -27834,7 +27840,7 @@
         <v>1394</v>
       </c>
       <c r="G743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -27863,7 +27869,7 @@
         <v>1396</v>
       </c>
       <c r="G744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -27892,7 +27898,7 @@
         <v>1398</v>
       </c>
       <c r="G745" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H745" t="s">
         <v>4</v>
@@ -27979,7 +27985,7 @@
         <v>1404</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -28124,7 +28130,7 @@
         <v>1414</v>
       </c>
       <c r="G753" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -28153,7 +28159,7 @@
         <v>1416</v>
       </c>
       <c r="G754" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -28211,7 +28217,7 @@
         <v>1420</v>
       </c>
       <c r="G756" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -28240,7 +28246,7 @@
         <v>1422</v>
       </c>
       <c r="G757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -28269,7 +28275,7 @@
         <v>1424</v>
       </c>
       <c r="G758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -28298,7 +28304,7 @@
         <v>1426</v>
       </c>
       <c r="G759" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -28327,7 +28333,7 @@
         <v>1428</v>
       </c>
       <c r="G760" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -28356,7 +28362,7 @@
         <v>1430</v>
       </c>
       <c r="G761" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -28385,7 +28391,7 @@
         <v>1432</v>
       </c>
       <c r="G762" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -28414,7 +28420,7 @@
         <v>1434</v>
       </c>
       <c r="G763" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -28443,7 +28449,7 @@
         <v>1436</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -28849,7 +28855,7 @@
         <v>1464</v>
       </c>
       <c r="G778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -28878,7 +28884,7 @@
         <v>1466</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -28907,7 +28913,7 @@
         <v>1468</v>
       </c>
       <c r="G780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -28936,7 +28942,7 @@
         <v>1470</v>
       </c>
       <c r="G781" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -28965,7 +28971,7 @@
         <v>1472</v>
       </c>
       <c r="G782" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -29023,7 +29029,7 @@
         <v>1476</v>
       </c>
       <c r="G784" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -29052,7 +29058,7 @@
         <v>1478</v>
       </c>
       <c r="G785" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -29081,7 +29087,7 @@
         <v>1480</v>
       </c>
       <c r="G786" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -29110,7 +29116,7 @@
         <v>1482</v>
       </c>
       <c r="G787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -29139,7 +29145,7 @@
         <v>1484</v>
       </c>
       <c r="G788" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -29197,7 +29203,7 @@
         <v>1488</v>
       </c>
       <c r="G790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -29226,7 +29232,7 @@
         <v>1490</v>
       </c>
       <c r="G791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -29255,7 +29261,7 @@
         <v>1492</v>
       </c>
       <c r="G792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -29313,7 +29319,7 @@
         <v>1496</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -29342,7 +29348,7 @@
         <v>1498</v>
       </c>
       <c r="G795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -29371,7 +29377,7 @@
         <v>1500</v>
       </c>
       <c r="G796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -29429,7 +29435,7 @@
         <v>1504</v>
       </c>
       <c r="G798" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -29603,7 +29609,7 @@
         <v>1516</v>
       </c>
       <c r="G804" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -29632,7 +29638,7 @@
         <v>1518</v>
       </c>
       <c r="G805" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -29661,7 +29667,7 @@
         <v>1520</v>
       </c>
       <c r="G806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -29690,7 +29696,7 @@
         <v>1522</v>
       </c>
       <c r="G807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H807" t="s">
         <v>4</v>
@@ -29748,7 +29754,7 @@
         <v>1526</v>
       </c>
       <c r="G809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -29777,7 +29783,7 @@
         <v>1528</v>
       </c>
       <c r="G810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -29893,7 +29899,7 @@
         <v>1536</v>
       </c>
       <c r="G814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -29922,7 +29928,7 @@
         <v>1538</v>
       </c>
       <c r="G815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -29980,7 +29986,7 @@
         <v>1542</v>
       </c>
       <c r="G817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -30009,7 +30015,7 @@
         <v>1544</v>
       </c>
       <c r="G818" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -30038,7 +30044,7 @@
         <v>1546</v>
       </c>
       <c r="G819" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -30067,7 +30073,7 @@
         <v>1548</v>
       </c>
       <c r="G820" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -30096,7 +30102,7 @@
         <v>1550</v>
       </c>
       <c r="G821" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -30125,7 +30131,7 @@
         <v>1552</v>
       </c>
       <c r="G822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -30154,7 +30160,7 @@
         <v>1554</v>
       </c>
       <c r="G823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -30183,7 +30189,7 @@
         <v>1556</v>
       </c>
       <c r="G824" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -30241,7 +30247,7 @@
         <v>1560</v>
       </c>
       <c r="G826" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -30270,7 +30276,7 @@
         <v>1562</v>
       </c>
       <c r="G827" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H827" t="s">
         <v>4</v>
@@ -30328,7 +30334,7 @@
         <v>1566</v>
       </c>
       <c r="G829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -30357,7 +30363,7 @@
         <v>1568</v>
       </c>
       <c r="G830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H830" t="s">
         <v>4</v>
@@ -30415,7 +30421,7 @@
         <v>1572</v>
       </c>
       <c r="G832" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -30473,7 +30479,7 @@
         <v>1576</v>
       </c>
       <c r="G834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H834" t="s">
         <v>4</v>
@@ -30502,7 +30508,7 @@
         <v>1578</v>
       </c>
       <c r="G835" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H835" t="s">
         <v>4</v>
@@ -30531,7 +30537,7 @@
         <v>1580</v>
       </c>
       <c r="G836" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H836" t="s">
         <v>4</v>
@@ -30560,7 +30566,7 @@
         <v>1582</v>
       </c>
       <c r="G837" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -30589,7 +30595,7 @@
         <v>1584</v>
       </c>
       <c r="G838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -30618,7 +30624,7 @@
         <v>1586</v>
       </c>
       <c r="G839" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -30647,7 +30653,7 @@
         <v>1588</v>
       </c>
       <c r="G840" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -30676,7 +30682,7 @@
         <v>1590</v>
       </c>
       <c r="G841" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -30699,10 +30705,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1539</v>
+        <v>1591</v>
       </c>
       <c r="F842" t="s">
-        <v>1540</v>
+        <v>1592</v>
       </c>
       <c r="G842" t="n">
         <v>2</v>
@@ -30728,10 +30734,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1591</v>
+        <v>1541</v>
       </c>
       <c r="F843" t="s">
-        <v>1592</v>
+        <v>1542</v>
       </c>
       <c r="G843" t="n">
         <v>2</v>
@@ -30792,7 +30798,7 @@
         <v>1596</v>
       </c>
       <c r="G845" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -30821,7 +30827,7 @@
         <v>1598</v>
       </c>
       <c r="G846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H846" t="s">
         <v>4</v>
@@ -30850,7 +30856,7 @@
         <v>1600</v>
       </c>
       <c r="G847" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H847" t="s">
         <v>4</v>
@@ -30879,7 +30885,7 @@
         <v>1602</v>
       </c>
       <c r="G848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H848" t="s">
         <v>4</v>
@@ -30908,7 +30914,7 @@
         <v>1604</v>
       </c>
       <c r="G849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -30937,7 +30943,7 @@
         <v>1606</v>
       </c>
       <c r="G850" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H850" t="s">
         <v>4</v>
@@ -30960,10 +30966,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1471</v>
+        <v>1607</v>
       </c>
       <c r="F851" t="s">
-        <v>1472</v>
+        <v>1608</v>
       </c>
       <c r="G851" t="n">
         <v>2</v>
@@ -30989,10 +30995,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1513</v>
+        <v>1473</v>
       </c>
       <c r="F852" t="s">
-        <v>1514</v>
+        <v>1474</v>
       </c>
       <c r="G852" t="n">
         <v>2</v>
@@ -31018,10 +31024,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1607</v>
+        <v>1515</v>
       </c>
       <c r="F853" t="s">
-        <v>1608</v>
+        <v>1516</v>
       </c>
       <c r="G853" t="n">
         <v>2</v>
@@ -31053,7 +31059,7 @@
         <v>1610</v>
       </c>
       <c r="G854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H854" t="s">
         <v>4</v>
@@ -31082,7 +31088,7 @@
         <v>1612</v>
       </c>
       <c r="G855" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H855" t="s">
         <v>4</v>
@@ -31111,7 +31117,7 @@
         <v>1614</v>
       </c>
       <c r="G856" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H856" t="s">
         <v>4</v>
@@ -31134,13 +31140,13 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1519</v>
+        <v>1615</v>
       </c>
       <c r="F857" t="s">
-        <v>1520</v>
+        <v>1616</v>
       </c>
       <c r="G857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H857" t="s">
         <v>4</v>
@@ -31163,13 +31169,13 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1615</v>
+        <v>1521</v>
       </c>
       <c r="F858" t="s">
-        <v>1616</v>
+        <v>1522</v>
       </c>
       <c r="G858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -31198,7 +31204,7 @@
         <v>1618</v>
       </c>
       <c r="G859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H859" t="s">
         <v>4</v>
@@ -31227,7 +31233,7 @@
         <v>1620</v>
       </c>
       <c r="G860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H860" t="s">
         <v>4</v>
@@ -31250,10 +31256,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>15</v>
+        <v>1621</v>
       </c>
       <c r="F861" t="s">
-        <v>16</v>
+        <v>1622</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -31279,10 +31285,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1387</v>
+        <v>15</v>
       </c>
       <c r="F862" t="s">
-        <v>1388</v>
+        <v>16</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -31308,10 +31314,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1621</v>
+        <v>1389</v>
       </c>
       <c r="F863" t="s">
-        <v>1622</v>
+        <v>1390</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -31337,10 +31343,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1391</v>
+        <v>1623</v>
       </c>
       <c r="F864" t="s">
-        <v>1392</v>
+        <v>1624</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -31366,10 +31372,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1623</v>
+        <v>1393</v>
       </c>
       <c r="F865" t="s">
-        <v>1624</v>
+        <v>1394</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -31453,13 +31459,13 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1455</v>
+        <v>1629</v>
       </c>
       <c r="F868" t="s">
-        <v>1456</v>
+        <v>1630</v>
       </c>
       <c r="G868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -31482,13 +31488,13 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1629</v>
+        <v>1457</v>
       </c>
       <c r="F869" t="s">
-        <v>1630</v>
+        <v>1458</v>
       </c>
       <c r="G869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -32526,10 +32532,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>181</v>
+        <v>1701</v>
       </c>
       <c r="F905" t="s">
-        <v>182</v>
+        <v>1702</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -32555,13 +32561,13 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1701</v>
+        <v>181</v>
       </c>
       <c r="F906" t="s">
-        <v>1702</v>
+        <v>182</v>
       </c>
       <c r="G906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H906" t="s">
         <v>4</v>
@@ -32590,7 +32596,7 @@
         <v>1704</v>
       </c>
       <c r="G907" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H907" t="s">
         <v>4</v>
@@ -32619,7 +32625,7 @@
         <v>1706</v>
       </c>
       <c r="G908" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H908" t="s">
         <v>4</v>
@@ -32677,7 +32683,7 @@
         <v>1710</v>
       </c>
       <c r="G910" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H910" t="s">
         <v>4</v>
@@ -32706,7 +32712,7 @@
         <v>1712</v>
       </c>
       <c r="G911" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -32764,7 +32770,7 @@
         <v>1716</v>
       </c>
       <c r="G913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H913" t="s">
         <v>4</v>
@@ -32822,7 +32828,7 @@
         <v>1720</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H915" t="s">
         <v>4</v>
@@ -32851,7 +32857,7 @@
         <v>1722</v>
       </c>
       <c r="G916" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H916" t="s">
         <v>4</v>
@@ -32874,13 +32880,13 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>785</v>
+        <v>1723</v>
       </c>
       <c r="F917" t="s">
-        <v>786</v>
+        <v>1724</v>
       </c>
       <c r="G917" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H917" t="s">
         <v>4</v>
@@ -32903,13 +32909,13 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1723</v>
+        <v>785</v>
       </c>
       <c r="F918" t="s">
-        <v>1724</v>
+        <v>786</v>
       </c>
       <c r="G918" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -32938,7 +32944,7 @@
         <v>1726</v>
       </c>
       <c r="G919" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -32996,7 +33002,7 @@
         <v>1730</v>
       </c>
       <c r="G921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -33025,7 +33031,7 @@
         <v>1732</v>
       </c>
       <c r="G922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -33054,7 +33060,7 @@
         <v>1734</v>
       </c>
       <c r="G923" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H923" t="s">
         <v>4</v>
@@ -33083,7 +33089,7 @@
         <v>1736</v>
       </c>
       <c r="G924" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -33170,7 +33176,7 @@
         <v>1742</v>
       </c>
       <c r="G927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -33193,13 +33199,13 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>323</v>
+        <v>1743</v>
       </c>
       <c r="F928" t="s">
-        <v>324</v>
+        <v>1744</v>
       </c>
       <c r="G928" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -33222,13 +33228,13 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1743</v>
+        <v>323</v>
       </c>
       <c r="F929" t="s">
-        <v>1744</v>
+        <v>324</v>
       </c>
       <c r="G929" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -33257,7 +33263,7 @@
         <v>1746</v>
       </c>
       <c r="G930" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -33373,7 +33379,7 @@
         <v>1754</v>
       </c>
       <c r="G934" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H934" t="s">
         <v>4</v>
@@ -33402,7 +33408,7 @@
         <v>1756</v>
       </c>
       <c r="G935" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H935" t="s">
         <v>4</v>
@@ -33721,7 +33727,7 @@
         <v>1778</v>
       </c>
       <c r="G946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H946" t="s">
         <v>4</v>
@@ -33750,7 +33756,7 @@
         <v>1780</v>
       </c>
       <c r="G947" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -34214,7 +34220,7 @@
         <v>1812</v>
       </c>
       <c r="G963" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -34243,7 +34249,7 @@
         <v>1814</v>
       </c>
       <c r="G964" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H964" t="s">
         <v>4</v>
@@ -34301,7 +34307,7 @@
         <v>1818</v>
       </c>
       <c r="G966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -34330,7 +34336,7 @@
         <v>1820</v>
       </c>
       <c r="G967" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -34359,7 +34365,7 @@
         <v>1822</v>
       </c>
       <c r="G968" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H968" t="s">
         <v>4</v>
@@ -34417,7 +34423,7 @@
         <v>1826</v>
       </c>
       <c r="G970" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H970" t="s">
         <v>4</v>
@@ -34968,7 +34974,7 @@
         <v>1864</v>
       </c>
       <c r="G989" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H989" t="s">
         <v>4</v>
@@ -34997,7 +35003,7 @@
         <v>1866</v>
       </c>
       <c r="G990" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H990" t="s">
         <v>4</v>
@@ -35200,7 +35206,7 @@
         <v>1880</v>
       </c>
       <c r="G997" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H997" t="s">
         <v>4</v>
@@ -35229,7 +35235,7 @@
         <v>1882</v>
       </c>
       <c r="G998" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -35316,7 +35322,7 @@
         <v>1888</v>
       </c>
       <c r="G1001" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1001" t="s">
         <v>4</v>
@@ -35345,7 +35351,7 @@
         <v>1890</v>
       </c>
       <c r="G1002" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1002" t="s">
         <v>4</v>
@@ -35374,7 +35380,7 @@
         <v>1892</v>
       </c>
       <c r="G1003" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -35635,7 +35641,7 @@
         <v>1910</v>
       </c>
       <c r="G1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1012" t="s">
         <v>4</v>
@@ -35664,7 +35670,7 @@
         <v>1912</v>
       </c>
       <c r="G1013" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1013" t="s">
         <v>4</v>
@@ -35693,7 +35699,7 @@
         <v>1914</v>
       </c>
       <c r="G1014" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1014" t="s">
         <v>4</v>
@@ -35722,7 +35728,7 @@
         <v>1916</v>
       </c>
       <c r="G1015" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1015" t="s">
         <v>4</v>
@@ -35751,7 +35757,7 @@
         <v>1918</v>
       </c>
       <c r="G1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1016" t="s">
         <v>4</v>
@@ -35780,7 +35786,7 @@
         <v>1920</v>
       </c>
       <c r="G1017" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1017" t="s">
         <v>4</v>
@@ -35809,7 +35815,7 @@
         <v>1922</v>
       </c>
       <c r="G1018" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1018" t="s">
         <v>4</v>
@@ -35838,7 +35844,7 @@
         <v>1924</v>
       </c>
       <c r="G1019" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1019" t="s">
         <v>4</v>
@@ -35867,7 +35873,7 @@
         <v>1926</v>
       </c>
       <c r="G1020" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1020" t="s">
         <v>4</v>
@@ -35948,13 +35954,13 @@
         <v>1022</v>
       </c>
       <c r="E1023" t="s">
-        <v>231</v>
+        <v>1931</v>
       </c>
       <c r="F1023" t="s">
-        <v>232</v>
+        <v>1932</v>
       </c>
       <c r="G1023" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1023" t="s">
         <v>4</v>
@@ -35977,10 +35983,10 @@
         <v>1023</v>
       </c>
       <c r="E1024" t="s">
-        <v>1931</v>
+        <v>231</v>
       </c>
       <c r="F1024" t="s">
-        <v>1932</v>
+        <v>232</v>
       </c>
       <c r="G1024" t="n">
         <v>1</v>
@@ -36035,13 +36041,13 @@
         <v>1025</v>
       </c>
       <c r="E1026" t="s">
-        <v>1511</v>
+        <v>1935</v>
       </c>
       <c r="F1026" t="s">
-        <v>1512</v>
+        <v>1936</v>
       </c>
       <c r="G1026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1026" t="s">
         <v>4</v>
@@ -36064,10 +36070,10 @@
         <v>1026</v>
       </c>
       <c r="E1027" t="s">
-        <v>1935</v>
+        <v>1513</v>
       </c>
       <c r="F1027" t="s">
-        <v>1936</v>
+        <v>1514</v>
       </c>
       <c r="G1027" t="n">
         <v>2</v>
@@ -36099,7 +36105,7 @@
         <v>1938</v>
       </c>
       <c r="G1028" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1028" t="s">
         <v>4</v>
@@ -36128,7 +36134,7 @@
         <v>1940</v>
       </c>
       <c r="G1029" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1029" t="s">
         <v>4</v>
@@ -36209,13 +36215,13 @@
         <v>1031</v>
       </c>
       <c r="E1032" t="s">
-        <v>1727</v>
+        <v>1945</v>
       </c>
       <c r="F1032" t="s">
-        <v>1728</v>
+        <v>1946</v>
       </c>
       <c r="G1032" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1032" t="s">
         <v>4</v>
@@ -36238,10 +36244,10 @@
         <v>1032</v>
       </c>
       <c r="E1033" t="s">
-        <v>539</v>
+        <v>1729</v>
       </c>
       <c r="F1033" t="s">
-        <v>540</v>
+        <v>1730</v>
       </c>
       <c r="G1033" t="n">
         <v>1</v>
@@ -36267,10 +36273,10 @@
         <v>1033</v>
       </c>
       <c r="E1034" t="s">
-        <v>1945</v>
+        <v>539</v>
       </c>
       <c r="F1034" t="s">
-        <v>1946</v>
+        <v>540</v>
       </c>
       <c r="G1034" t="n">
         <v>1</v>
@@ -36354,10 +36360,10 @@
         <v>1036</v>
       </c>
       <c r="E1037" t="s">
-        <v>1727</v>
+        <v>1951</v>
       </c>
       <c r="F1037" t="s">
-        <v>1728</v>
+        <v>1952</v>
       </c>
       <c r="G1037" t="n">
         <v>1</v>
@@ -36383,10 +36389,10 @@
         <v>1037</v>
       </c>
       <c r="E1038" t="s">
-        <v>1951</v>
+        <v>1729</v>
       </c>
       <c r="F1038" t="s">
-        <v>1952</v>
+        <v>1730</v>
       </c>
       <c r="G1038" t="n">
         <v>1</v>
@@ -36412,10 +36418,10 @@
         <v>1038</v>
       </c>
       <c r="E1039" t="s">
-        <v>521</v>
+        <v>1953</v>
       </c>
       <c r="F1039" t="s">
-        <v>522</v>
+        <v>1954</v>
       </c>
       <c r="G1039" t="n">
         <v>1</v>
@@ -36441,13 +36447,13 @@
         <v>1039</v>
       </c>
       <c r="E1040" t="s">
-        <v>1953</v>
+        <v>521</v>
       </c>
       <c r="F1040" t="s">
-        <v>1954</v>
+        <v>522</v>
       </c>
       <c r="G1040" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -36476,7 +36482,7 @@
         <v>1956</v>
       </c>
       <c r="G1041" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -36708,7 +36714,7 @@
         <v>1972</v>
       </c>
       <c r="G1049" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -36737,7 +36743,7 @@
         <v>1974</v>
       </c>
       <c r="G1050" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H1050" t="s">
         <v>4</v>
@@ -36760,18 +36766,47 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="F1051" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E1052" t="s">
         <v>1975</v>
       </c>
-      <c r="G1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1051" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1051" t="n">
+      <c r="F1052" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1052" t="n">
         <v>3</v>
       </c>
     </row>
